--- a/excelFile/upload/test.xlsx
+++ b/excelFile/upload/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\ideaProjects\BGC_demo\excelFile\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6A5571-BAB5-4C72-9410-954CB23C3502}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5D45E9-9CA8-44DA-823C-18FD778C4F4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2625" yWindow="2940" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>TITAN系统</t>
   </si>
@@ -109,6 +109,24 @@
   <si>
     <t>htwdcdms_用例_006</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OBJECT_API_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注02</t>
+  </si>
+  <si>
+    <t>备注03</t>
   </si>
 </sst>
 </file>
@@ -439,33 +457,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -473,37 +492,40 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,33 +533,39 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="M2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,33 +573,39 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="P3" s="2"/>
+      <c r="M3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,31 +613,37 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="M4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="Q4" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
